--- a/Etherscan Test cases.xlsx
+++ b/Etherscan Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NenadJakovljevic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5DEA7F-92C7-4C1A-BACC-722A7C660608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC11BF4-5136-4D3D-9D7D-C7435F050B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="98">
   <si>
     <t>Project</t>
   </si>
@@ -292,17 +292,51 @@
   </si>
   <si>
     <t>veljkorac9</t>
+  </si>
+  <si>
+    <t>Password not mathcing requirements registration</t>
+  </si>
+  <si>
+    <t>Enter 7 characters password into Password input field</t>
+  </si>
+  <si>
+    <t>sifra12</t>
+  </si>
+  <si>
+    <t>veljkorac10</t>
+  </si>
+  <si>
+    <t>veljan.korac10@mailinator.com</t>
+  </si>
+  <si>
+    <t>Wrong form email registration</t>
+  </si>
+  <si>
+    <t>veljan.korac10</t>
+  </si>
+  <si>
+    <t>Message 'Your password must be at least 8 characters long.' should be displayed under Password input field</t>
+  </si>
+  <si>
+    <t>Message 'Please enter a valid email address.' should be displayed under Email input field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,23 +422,24 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -625,18 +660,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="58.5703125" customWidth="1"/>
     <col min="5" max="5" width="57.42578125" customWidth="1"/>
-    <col min="6" max="6" width="101.5703125" customWidth="1"/>
+    <col min="6" max="6" width="119.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
     <col min="8" max="23" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1915,19 +1950,19 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D145" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D146" s="7" t="s">
         <v>23</v>
       </c>
@@ -1938,7 +1973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D147" s="7" t="s">
         <v>24</v>
       </c>
@@ -1952,43 +1987,235 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>13</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G171" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2855,8 +3082,12 @@
     <hyperlink ref="E141" r:id="rId20" xr:uid="{DA9A02F5-5955-4CAB-9E32-09BAC1E776C3}"/>
     <hyperlink ref="E142" r:id="rId21" xr:uid="{70F1769F-D866-4848-A17A-6525D0EF6706}"/>
     <hyperlink ref="E147" r:id="rId22" xr:uid="{66E59516-F8D4-4CE3-ADC1-0E74B6B95939}"/>
+    <hyperlink ref="E153" r:id="rId23" xr:uid="{F57B8C0E-BF2F-4D72-B7DF-E6B18EB66668}"/>
+    <hyperlink ref="E154" r:id="rId24" xr:uid="{CE2ABB06-4D36-432C-8518-8D8B336D4795}"/>
+    <hyperlink ref="E165" r:id="rId25" display="veljan.korac10@mailinator.com" xr:uid="{4845EEFD-15BD-4F0C-A941-04615CDDE86C}"/>
+    <hyperlink ref="E166" r:id="rId26" display="veljan.korac10@mailinator.com" xr:uid="{15C9180D-73EA-4C73-8ED5-22CE15004F75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId23"/>
+  <pageSetup orientation="landscape" r:id="rId27"/>
 </worksheet>
 </file>